--- a/Supplemental_Code/SupTables_Grayson2022.xlsx
+++ b/Supplemental_Code/SupTables_Grayson2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/SexFindR/Supplemental_Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB12DE8-C62D-D042-8452-7CF473045683}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B66FEC3C-09E7-A646-8644-4F7122DBC93D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43180" yWindow="8820" windowWidth="40180" windowHeight="23500" xr2:uid="{3158EE9F-058B-0240-9324-5F7A5FD5C8CD}"/>
+    <workbookView xWindow="15320" yWindow="10320" windowWidth="40180" windowHeight="23500" xr2:uid="{3158EE9F-058B-0240-9324-5F7A5FD5C8CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S2" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="586">
   <si>
     <t>Fugu</t>
   </si>
@@ -2268,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DEF059-81A8-8C4A-8616-E870EBF7A124}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2368,6 +2368,23 @@
       </c>
       <c r="E6">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7">
+        <v>10600000</v>
+      </c>
+      <c r="C7">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
